--- a/4443_Grades.xlsx
+++ b/4443_Grades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="51200" yWindow="6120" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="4443_distribution_list.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Teon I. Bedford</t>
   </si>
@@ -45,12 +45,6 @@
     <t>ABJOEY314@GMAIL.COM</t>
   </si>
   <si>
-    <t>Robert B. Brumley</t>
-  </si>
-  <si>
-    <t>awesome.aubie@gmail.com</t>
-  </si>
-  <si>
     <t>Austin W. Cullar</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>Patrick J. Healey</t>
   </si>
   <si>
-    <t>cathy_healey@yahoo.com</t>
-  </si>
-  <si>
     <t>Constantina M. Kacavas</t>
   </si>
   <si>
@@ -124,6 +115,57 @@
   </si>
   <si>
     <t>kevmdoan@gmail.com</t>
+  </si>
+  <si>
+    <t>Program 1</t>
+  </si>
+  <si>
+    <t>hdtran89</t>
+  </si>
+  <si>
+    <t>annevu</t>
+  </si>
+  <si>
+    <t>phealey</t>
+  </si>
+  <si>
+    <t>doankev</t>
+  </si>
+  <si>
+    <t>ebinnion</t>
+  </si>
+  <si>
+    <t>james55</t>
+  </si>
+  <si>
+    <t>kanrail</t>
+  </si>
+  <si>
+    <t>jacob-taylor</t>
+  </si>
+  <si>
+    <t>AustinCullar</t>
+  </si>
+  <si>
+    <t>tsoteen89</t>
+  </si>
+  <si>
+    <t>AndrewBowman</t>
+  </si>
+  <si>
+    <t>teonbedford</t>
+  </si>
+  <si>
+    <t>CKacavas</t>
+  </si>
+  <si>
+    <t>averageear</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>patrickjeffreyhealey@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -180,8 +222,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -197,11 +249,21 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,201 +593,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.755</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.62</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.59499999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/4443_Grades.xlsx
+++ b/4443_Grades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="6120" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="52740" yWindow="6180" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="4443_distribution_list.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Teon I. Bedford</t>
   </si>
@@ -45,6 +45,12 @@
     <t>ABJOEY314@GMAIL.COM</t>
   </si>
   <si>
+    <t>Robert B. Brumley</t>
+  </si>
+  <si>
+    <t>awesome.aubie@gmail.com</t>
+  </si>
+  <si>
     <t>Austin W. Cullar</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
   </si>
   <si>
     <t>doankev</t>
+  </si>
+  <si>
+    <t>Raetekusu</t>
   </si>
   <si>
     <t>ebinnion</t>
@@ -222,8 +231,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -249,7 +262,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -257,6 +270,8 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -264,6 +279,8 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -609,19 +626,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -632,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3">
         <v>0.755</v>
@@ -646,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3">
         <v>0.62</v>
@@ -660,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3">
         <v>0.35499999999999998</v>
@@ -674,7 +691,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3">
         <v>0.57499999999999996</v>
@@ -682,13 +699,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3">
         <v>0.68</v>
@@ -696,13 +713,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3">
         <v>0.76500000000000001</v>
@@ -710,13 +727,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3">
         <v>0.51500000000000001</v>
@@ -724,13 +741,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3">
         <v>0.59499999999999997</v>
@@ -738,13 +755,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3">
         <v>0.88</v>
@@ -752,10 +769,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3">
         <v>0.25</v>
@@ -763,13 +780,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3">
         <v>0.69</v>
@@ -777,13 +794,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3">
         <v>0.51500000000000001</v>
@@ -791,13 +808,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3">
         <v>0.7</v>
@@ -805,13 +822,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3">
         <v>0.31</v>
@@ -819,16 +836,27 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3">
         <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
